--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>324_小手球单瓣_Spiraea flower_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015301210113215550</v>
+        <v>015301210113215552</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,12 +527,98 @@
         <v>324_小手球单瓣_Spiraea flower_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>2</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <v>544_空气草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5</v>
+      </c>
+      <c r="C20" t="str">
+        <v>570_水蜡烛_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015301210113215552</v>
+        <v>015301210113215552552015302015151060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -615,6 +615,9 @@
       <c r="A21" t="str">
         <v>6</v>
       </c>
+      <c r="C21" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -618,6 +618,9 @@
       <c r="C21" t="str">
         <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -679,7 +682,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015301210113215552552015302015151060</v>
+        <v>015301210113215552552015302015151064</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -619,7 +619,7 @@
         <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015301210113215552552015302015151064</v>
+        <v>0153012101132155525520153020151510640</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -622,9 +622,89 @@
         <v>40</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>849_婚庆卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>360_夕雾草_undefined_Trachelium caeruleum L._1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>406_千鸟飞燕 白_larkspur white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>7</v>
+      </c>
+      <c r="C30" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -682,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0153012101132155525520153020151510640</v>
+        <v>01530121011321555255201530201515106402720335251615550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -701,6 +701,9 @@
       <c r="C31" t="str">
         <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -762,7 +765,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01530121011321555255201530201515106402720335251615550</v>
+        <v>01530121011321555255201530201515106402720335251615555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-25.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,9 +705,81 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>679_锦鲤白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>841_蝴蝶洋牡丹开炸了_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L40"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -765,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01530121011321555255201530201515106402720335251615555</v>
+        <v>01530121011321555255201530201515106402720335251615555303012203305185</v>
       </c>
     </row>
   </sheetData>
